--- a/Andrew-annotations/WBA_Q4_2019.xlsx
+++ b/Andrew-annotations/WBA_Q4_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB94801-C7E1-47BC-8ADF-61944C1195E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2186189-B2EF-4C52-8140-F3A27E59AD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -801,10 +801,10 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -903,13 +903,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -929,19 +929,19 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1191,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1281,13 +1281,13 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1447,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
